--- a/biology/Botanique/Acacia_acanthoclada/Acacia_acanthoclada.xlsx
+++ b/biology/Botanique/Acacia_acanthoclada/Acacia_acanthoclada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia acanthoclada est une espèce de plantes à fleurs de la famille des Fabacées. C'est un arbuste de petite taille, divariqué, très ramifié, épineux, endémique de l'Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il atteint jusqu'à 2 mètres de haut et a des phyllodes qui mesurent de 0,2 à 0,6 cm de long et de 1 à 2 mm de large. Les phyllodes sont droites, étroites, cunéiformes, légèrement échancrées au sommet et disposent d'importantes nervures. Les ramilles sont cconiques, blanchâtres et densément pubescentes et lorsque la branche se développe, elles deviennent glabres et se terminent en pointe rigide. L'écorce est grise, blanche ou parfois verdâtre.
 Les capitules floraux, jaune doré, ont des pédoncules de 5 à 15 cm de long, qui apparaissent à l'aisselle des phyllodes. Les fleurs pentamères ont les sépales fusionnés en calice. Les fleurs apparaissent d'août à octobre, remplacées par des gousses tordues de façon irrégulière, glauques, contenant des graines brunes et mesurant de 3 à 6 cm de long et de 3 à 6 mm de large.
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 octobre 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 octobre 2019) :
 sous-espèce Acacia acanthoclada subsp. acanthoclada
 sous-espèce Acacia acanthoclada subsp. glaucescens</t>
         </is>
